--- a/Resultados_Totales/Resultados_Parciales/Resultados_ZAMORA CHINCHIPE.xlsx
+++ b/Resultados_Totales/Resultados_Parciales/Resultados_ZAMORA CHINCHIPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\DOC_TESIS_FINAL\CODIGOS PYTHON\RESULTADOS_IMPLEMENTACIÓN\RESULTADOS_PREDICCION\Resultados_Corregidos\Resultados_Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\DOC_TESIS_FINAL\Resultados_Totales\Resultados_Parciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F23ACDE-7BE5-46A7-9947-042E45BCF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE1C21B-0848-442E-9A74-D066961F497C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fiscalias" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +997,8 @@
         <v>6</v>
       </c>
       <c r="J2">
-        <v>-3</v>
+        <f>I2-D2</f>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>8.8461651873912661</v>
@@ -1026,12 +1027,14 @@
         <v>10.73537305421363</v>
       </c>
       <c r="H3">
-        <v>10.73537305421363</v>
+        <f t="shared" ref="H3:H10" si="0">(E3/B3)*100000</f>
+        <v>10.735373054213634</v>
       </c>
       <c r="I3">
         <v>3</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J10" si="1">I3-D3</f>
         <v>0</v>
       </c>
       <c r="K3">
@@ -1061,12 +1064,14 @@
         <v>8.8495575221238933</v>
       </c>
       <c r="H4">
-        <v>17.69911504424779</v>
+        <f t="shared" si="0"/>
+        <v>17.699115044247787</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K4">
@@ -1096,12 +1101,14 @@
         <v>9.2208390963577678</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
         <v>9.2208390963577678</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
@@ -1131,12 +1138,14 @@
         <v>11.62520344106022</v>
       </c>
       <c r="H6">
-        <v>11.62520344106022</v>
+        <f t="shared" si="0"/>
+        <v>11.625203441060219</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
@@ -1166,12 +1175,14 @@
         <v>9.5702938080199065</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
         <v>9.5702938080199065</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7">
@@ -1201,12 +1212,14 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
         <v>15.496668216333489</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K8">
@@ -1236,12 +1249,14 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11.604966925844259</v>
+        <f t="shared" si="0"/>
+        <v>11.604966925844261</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K9">
@@ -1271,12 +1286,14 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13.702384214853391</v>
+        <f t="shared" si="0"/>
+        <v>13.702384214853385</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10">
